--- a/spliced/walkingToRunning/2023-03-24_10-07-36/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_10-07-36/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.415270102435171</v>
+        <v>-0.2807844198983286</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5314338042818449</v>
+        <v>-0.8123789481047923</v>
       </c>
       <c r="C2" t="n">
-        <v>4.029043727907666</v>
+        <v>-0.09823161813205905</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-9.314493606830482</v>
+        <v>-0.1417398627462046</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2480275487077682</v>
+        <v>-0.1100757933896112</v>
       </c>
       <c r="C3" t="n">
-        <v>3.206530965607738</v>
+        <v>2.834019057966533</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.801971287562949</v>
+        <v>-1.13705500035451</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.823644173042532</v>
+        <v>2.739093329500554</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2525709908584024</v>
+        <v>-2.630493768330314</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.358451415752542</v>
+        <v>2.9049899660308</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.83039114393037</v>
+        <v>-3.484631538391146</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2956774553348279</v>
+        <v>-2.321273335095107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.929245866578198</v>
+        <v>-3.415270102435171</v>
       </c>
       <c r="B6" t="n">
-        <v>4.034436612293629</v>
+        <v>0.5314338042818449</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2522587591204151</v>
+        <v>4.029043727907666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.834473840121543</v>
+        <v>-9.314493606830482</v>
       </c>
       <c r="B7" t="n">
-        <v>4.45597813047212</v>
+        <v>-0.2480275487077682</v>
       </c>
       <c r="C7" t="n">
-        <v>2.253706974202184</v>
+        <v>3.206530965607738</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.379544188236389</v>
+        <v>2.801971287562949</v>
       </c>
       <c r="B8" t="n">
-        <v>2.00216909318133</v>
+        <v>-2.823644173042532</v>
       </c>
       <c r="C8" t="n">
-        <v>4.38414403076831</v>
+        <v>0.2525709908584024</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.495801197043751</v>
+        <v>4.358451415752542</v>
       </c>
       <c r="B9" t="n">
-        <v>11.70056653022773</v>
+        <v>-4.83039114393037</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6984025085794245</v>
+        <v>0.2956774553348279</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.489601142961419</v>
+        <v>7.929245866578198</v>
       </c>
       <c r="B10" t="n">
-        <v>1.782228860361755</v>
+        <v>4.034436612293629</v>
       </c>
       <c r="C10" t="n">
-        <v>3.894388745057194</v>
+        <v>0.2522587591204151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7.727643826912207</v>
+        <v>-0.834473840121543</v>
       </c>
       <c r="B11" t="n">
-        <v>6.834787146798529</v>
+        <v>4.45597813047212</v>
       </c>
       <c r="C11" t="n">
-        <v>1.897908695812871</v>
+        <v>2.253706974202184</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1587105783922702</v>
+        <v>-5.379544188236389</v>
       </c>
       <c r="B12" t="n">
-        <v>5.019907260763223</v>
+        <v>2.00216909318133</v>
       </c>
       <c r="C12" t="n">
-        <v>1.782309127265012</v>
+        <v>4.38414403076831</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-5.217137336730959</v>
+        <v>-1.495801197043751</v>
       </c>
       <c r="B13" t="n">
-        <v>3.712993112103693</v>
+        <v>11.70056653022773</v>
       </c>
       <c r="C13" t="n">
-        <v>5.708451303942454</v>
+        <v>0.6984025085794245</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.931081188136128</v>
+        <v>2.489601142961419</v>
       </c>
       <c r="B14" t="n">
-        <v>1.861609384931368</v>
+        <v>1.782228860361755</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.062639532418077</v>
+        <v>3.894388745057194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.396664668773761</v>
+        <v>7.727643826912207</v>
       </c>
       <c r="B15" t="n">
-        <v>-5.718913538702679</v>
+        <v>6.834787146798529</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.399837789864275</v>
+        <v>1.897908695812871</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.86892145666587</v>
+        <v>0.1587105783922702</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.869332508794124</v>
+        <v>5.019907260763223</v>
       </c>
       <c r="C16" t="n">
-        <v>1.079519285724066</v>
+        <v>1.782309127265012</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.767213952952357</v>
+        <v>-5.217137336730959</v>
       </c>
       <c r="B17" t="n">
-        <v>1.710883551630483</v>
+        <v>3.712993112103693</v>
       </c>
       <c r="C17" t="n">
-        <v>1.963973425585661</v>
+        <v>5.708451303942454</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-3.255076243959633</v>
+        <v>1.931081188136128</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04516811000888521</v>
+        <v>1.861609384931368</v>
       </c>
       <c r="C18" t="n">
-        <v>5.548670966049739</v>
+        <v>-5.062639532418077</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.7715866319064268</v>
+        <v>3.396664668773761</v>
       </c>
       <c r="B19" t="n">
-        <v>8.701057298430134</v>
+        <v>-5.718913538702679</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.006967774752950184</v>
+        <v>-1.399837789864275</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.181180877932187</v>
+        <v>6.86892145666587</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.4844702030050883</v>
+        <v>-1.869332508794124</v>
       </c>
       <c r="C20" t="n">
-        <v>1.036063860202677</v>
+        <v>1.079519285724066</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>1.767213952952357</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.710883551630483</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.963973425585661</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-3.255076243959633</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.04516811000888521</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.548670966049739</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.7715866319064268</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8.701057298430134</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.006967774752950184</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.181180877932187</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.4844702030050883</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.036063860202677</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
         <v>5.493912943478295</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B25" t="n">
         <v>-2.113819895119489</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C25" t="n">
         <v>1.030801805956604</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2.463171288884921</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.284831554725252</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.6873917538544219</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-3.070133529860395</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.359637453638269</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.026170623713525</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-2.565556277488823</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10.97180558895251</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.010093347779601</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.5303593524571014</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.632135161037951</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3993937804781349</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4.747484356164973</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-6.67747688293454</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.334976077079803</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2.688300560260526</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.088815121815081</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.408782399933858</v>
       </c>
     </row>
   </sheetData>
